--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dypark\code\lottery\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D224C97-D176-4A85-A898-DBFDD0B02372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE97C9E2-1DAE-4424-8A73-31BFBDE37629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="174">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +653,27 @@
   <si>
     <t>류형오</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김예림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심재성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="16.3"/>
@@ -1231,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>158</v>
@@ -1242,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>158</v>
@@ -1253,7 +1274,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>158</v>
@@ -1263,8 +1284,8 @@
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>98</v>
+      <c r="B13" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>158</v>
@@ -1275,7 +1296,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>158</v>
@@ -1286,7 +1307,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>158</v>
@@ -1297,7 +1318,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>158</v>
@@ -1308,7 +1329,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>158</v>
@@ -1319,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>158</v>
@@ -1330,10 +1351,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -1341,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>159</v>
@@ -1352,7 +1373,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>159</v>
@@ -1363,7 +1384,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>159</v>
@@ -1374,7 +1395,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>159</v>
@@ -1385,7 +1406,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>159</v>
@@ -1396,7 +1417,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>159</v>
@@ -1407,7 +1428,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>159</v>
@@ -1418,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>159</v>
@@ -1429,7 +1450,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>159</v>
@@ -1440,7 +1461,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>159</v>
@@ -1451,10 +1472,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -1462,10 +1483,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -1473,7 +1494,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>160</v>
@@ -1484,7 +1505,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>160</v>
@@ -1495,7 +1516,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>160</v>
@@ -1506,7 +1527,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>160</v>
@@ -1517,10 +1538,10 @@
         <v>44</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -1528,10 +1549,10 @@
         <v>45</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -1539,7 +1560,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>161</v>
@@ -1550,7 +1571,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>161</v>
@@ -1561,7 +1582,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>161</v>
@@ -1572,7 +1593,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>161</v>
@@ -1583,7 +1604,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>161</v>
@@ -1594,10 +1615,10 @@
         <v>51</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18">
@@ -1605,10 +1626,10 @@
         <v>52</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -1616,7 +1637,7 @@
         <v>53</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>162</v>
@@ -1627,7 +1648,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>162</v>
@@ -1638,7 +1659,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>162</v>
@@ -1649,7 +1670,7 @@
         <v>56</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>162</v>
@@ -1660,7 +1681,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>162</v>
@@ -1671,7 +1692,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>162</v>
@@ -1682,7 +1703,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>162</v>
@@ -1693,10 +1714,10 @@
         <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18">
@@ -1704,10 +1725,10 @@
         <v>61</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18">
@@ -1715,7 +1736,7 @@
         <v>62</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>163</v>
@@ -1726,7 +1747,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>163</v>
@@ -1737,7 +1758,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>163</v>
@@ -1748,7 +1769,7 @@
         <v>65</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>163</v>
@@ -1759,7 +1780,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>163</v>
@@ -1770,7 +1791,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>163</v>
@@ -1781,10 +1802,10 @@
         <v>68</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18">
@@ -1792,10 +1813,10 @@
         <v>69</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18">
@@ -1803,7 +1824,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>164</v>
@@ -1814,7 +1835,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>164</v>
@@ -1824,8 +1845,8 @@
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>5</v>
+      <c r="B64" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>164</v>
@@ -1835,8 +1856,8 @@
       <c r="A65" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>6</v>
+      <c r="B65" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>164</v>
@@ -1844,43 +1865,43 @@
     </row>
     <row r="66" spans="1:3" ht="18">
       <c r="A66" s="9" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18">
       <c r="A67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>146</v>
+        <v>74</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18">
       <c r="A68" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>147</v>
+        <v>75</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18">
       <c r="A69" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>165</v>
@@ -1888,10 +1909,10 @@
     </row>
     <row r="70" spans="1:3" ht="18">
       <c r="A70" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>165</v>
@@ -1899,10 +1920,10 @@
     </row>
     <row r="71" spans="1:3" ht="18">
       <c r="A71" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>165</v>
@@ -1910,10 +1931,10 @@
     </row>
     <row r="72" spans="1:3" ht="18">
       <c r="A72" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>165</v>
@@ -1921,10 +1942,10 @@
     </row>
     <row r="73" spans="1:3" ht="18">
       <c r="A73" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>165</v>
@@ -1932,10 +1953,10 @@
     </row>
     <row r="74" spans="1:3" ht="18">
       <c r="A74" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>165</v>
@@ -1943,10 +1964,10 @@
     </row>
     <row r="75" spans="1:3" ht="18">
       <c r="A75" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>165</v>
@@ -1954,10 +1975,10 @@
     </row>
     <row r="76" spans="1:3" ht="18">
       <c r="A76" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>165</v>
@@ -1965,10 +1986,10 @@
     </row>
     <row r="77" spans="1:3" ht="18">
       <c r="A77" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>165</v>
@@ -1976,29 +1997,47 @@
     </row>
     <row r="78" spans="1:3" ht="18">
       <c r="A78" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
+    <row r="79" spans="1:3" ht="18">
+      <c r="A79" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18">
+      <c r="A80" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18">
+      <c r="A81" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2"/>
@@ -2057,14 +2096,17 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2"/>
+      <c r="B95" s="5"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3">
@@ -2097,7 +2139,6 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2"/>
-      <c r="B103" s="4"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3">
@@ -2106,11 +2147,11 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2"/>
-      <c r="B105" s="4"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3">
@@ -2119,6 +2160,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3">
@@ -2202,20 +2244,23 @@
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="3"/>
-      <c r="D129" s="1" t="e" cm="1">
-        <f t="array" ref="D129">+A107B69:D129</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A129" s="2"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="3"/>
+      <c r="A130" s="2"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="3"/>
+      <c r="A131" s="2"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="3"/>
+      <c r="D132" s="1" t="e" cm="1">
+        <f t="array" ref="D132">+A107B69:D132</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="3"/>
@@ -2234,6 +2279,15 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dypark/code/lottery/server/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FC3B04-262B-D442-82DE-17BC279E94B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +35,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,46 +57,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김성태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박규태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주성돈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문영진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이정재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">// 컬럼은 건들지 말 것! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>003</t>
@@ -148,72 +130,403 @@
     <t>018</t>
   </si>
   <si>
-    <t>강현우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현승헌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김선미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길근오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유한규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정은영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신예린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>류형오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박도영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한동걸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하슬비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최재호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>CNE팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이맹렬</t>
+  </si>
+  <si>
+    <t>홍완승</t>
+  </si>
+  <si>
+    <t>신범철</t>
+  </si>
+  <si>
+    <t>윤영기</t>
+  </si>
+  <si>
+    <t>구연수</t>
+  </si>
+  <si>
+    <t>권순우</t>
+  </si>
+  <si>
+    <t>김태현</t>
+  </si>
+  <si>
+    <t>양재현</t>
+  </si>
+  <si>
+    <t>이언하</t>
+  </si>
+  <si>
+    <t>황광진</t>
+  </si>
+  <si>
+    <t>송규호</t>
+  </si>
+  <si>
+    <t>기지영</t>
+  </si>
+  <si>
+    <t>정호성</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,6 +582,34 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +619,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -301,46 +642,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,19 +1044,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="26.625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="16384" width="26.6640625" style="1"/>
+    <col min="1" max="16384" width="26.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" ht="18" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,525 +1067,850 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="19">
-      <c r="A2" s="9" t="s">
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="19">
-      <c r="A3" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="19">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="19">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="19">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="19">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="19">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="19">
-      <c r="A9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="19">
-      <c r="A10" s="9" t="s">
+      <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="19">
-      <c r="A11" s="9" t="s">
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="19">
-      <c r="A12" s="9" t="s">
+      <c r="B15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="19">
-      <c r="A13" s="9" t="s">
+      <c r="B16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1">
+      <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="19">
-      <c r="A14" s="9" t="s">
+      <c r="B17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="19">
-      <c r="A15" s="9" t="s">
+      <c r="B18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" thickBot="1">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="19">
-      <c r="A16" s="9" t="s">
+      <c r="B19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="12"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="19">
-      <c r="A17" s="9" t="s">
+      <c r="B20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="19">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="19">
-      <c r="A19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="9"/>
-      <c r="B25" s="7"/>
       <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="9"/>
-      <c r="B26" s="7"/>
       <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="9"/>
-      <c r="B27" s="5"/>
       <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="9"/>
-      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="9"/>
-      <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="9"/>
-      <c r="B30" s="5"/>
       <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="9"/>
-      <c r="B31" s="5"/>
       <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="9"/>
-      <c r="B32" s="5"/>
       <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="9"/>
-      <c r="B33" s="5"/>
       <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="9"/>
-      <c r="B34" s="5"/>
       <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="9"/>
-      <c r="B35" s="5"/>
       <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="9"/>
-      <c r="B36" s="5"/>
       <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="9"/>
-      <c r="B37" s="5"/>
       <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="9"/>
-      <c r="B38" s="5"/>
       <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="9"/>
-      <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9"/>
+      <c r="C40" s="6"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9"/>
+      <c r="C41" s="6"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9"/>
+      <c r="C42" s="6"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9"/>
+      <c r="C43" s="6"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9"/>
+      <c r="C44" s="6"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9"/>
+      <c r="C45" s="6"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="9"/>
+      <c r="C46" s="6"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="9"/>
+      <c r="C47" s="6"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9"/>
+      <c r="C48" s="6"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="9"/>
+      <c r="C49" s="6"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="9"/>
+      <c r="C50" s="6"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="9"/>
+      <c r="C51" s="6"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="9"/>
+      <c r="C52" s="6"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="9"/>
+      <c r="C54" s="6"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9"/>
+      <c r="C55" s="6"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="9"/>
+      <c r="C56" s="6"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="9"/>
+      <c r="C57" s="6"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="9"/>
+      <c r="C58" s="6"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="9"/>
+      <c r="C59" s="6"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="9"/>
+      <c r="C60" s="6"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9"/>
+      <c r="C61" s="6"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="9"/>
+      <c r="C62" s="6"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9"/>
+      <c r="C63" s="6"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9"/>
+      <c r="C64" s="6"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="9"/>
+      <c r="C65" s="6"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="9"/>
+      <c r="C66" s="6"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="9"/>
+      <c r="C67" s="6"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="9"/>
+      <c r="C68" s="6"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="9"/>
+      <c r="C69" s="6"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="9"/>
+      <c r="C70" s="6"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="9"/>
+      <c r="C71" s="6"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="9"/>
+      <c r="C72" s="6"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="9"/>
+      <c r="C73" s="6"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="9"/>
+      <c r="C74" s="6"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="9"/>
+      <c r="C75" s="6"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="9"/>
+      <c r="C76" s="6"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="9"/>
+      <c r="C77" s="6"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="9"/>
+      <c r="C78" s="6"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="9"/>
+      <c r="C79" s="6"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="9"/>
+      <c r="C80" s="6"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="9"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="6"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:6">
       <c r="A83" s="2"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:6">
       <c r="A84" s="2"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:6">
       <c r="A85" s="2"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:6">
       <c r="A86" s="2"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:6">
       <c r="A87" s="2"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:6">
       <c r="A88" s="2"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:6">
       <c r="A89" s="2"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="3"/>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" s="1" t="e" cm="1">
-        <f t="array" ref="D133">+A107B69:D133</f>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2"/>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2"/>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2"/>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2"/>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2"/>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2"/>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2"/>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2"/>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2"/>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="3"/>
+      <c r="D132" s="1" t="e" cm="1">
+        <f t="array" ref="D132">+A107B69:D132</f>
         <v>#NAME?</v>
       </c>
     </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
